--- a/data2.xlsx
+++ b/data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruthiraj/PycharmProjects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruthiraj/PycharmProjects/Testautomate-from excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53569116-DFEF-E445-AC35-869781528640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12842185-6161-734A-AD99-06657257220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{4AA46F77-EC22-914A-9B4A-E1B66E209A39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +47,48 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time of test</t>
+  </si>
+  <si>
+    <t>Name of tester</t>
+  </si>
+  <si>
+    <t>Test result</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>TEST PASS</t>
+  </si>
+  <si>
+    <t>TEST FAIL</t>
   </si>
 </sst>
 </file>
@@ -82,8 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,28 +442,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285C1C0E-A2D3-A041-A5DC-E023A269E213}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
